--- a/bots/crawl_ch/output/bread_coop_2023-02-06.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O333"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" t="n">
         <v>4.5</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6868,28 +6868,28 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4835222</t>
+          <t>6482126</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour</t>
+          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3.38/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6926,43 +6926,39 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Fairtrade Soft Cake Orange 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6482126</t>
+          <t>4835222</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
+          <t>Reiswaffeln Barbecue Flavour</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -6974,12 +6970,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>3.38/100g</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6989,7 +6985,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6999,18 +6995,22 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
+          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7497,28 +7497,28 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6099142</t>
+          <t>6132537</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Linzer-Törtli</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzer-toertli/p/6099142</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7555,42 +7555,42 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Linzer-Törtli 1.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz 20% ab 2 Aktion 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6820411</t>
+          <t>6099142</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
+          <t>Linzer-Törtli</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzer-toertli/p/6099142</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -7599,12 +7599,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7624,46 +7624,42 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Linzer-Törtli 1.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6132537</t>
+          <t>6820411</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7672,12 +7668,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7687,7 +7683,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7697,18 +7693,22 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz 20% ab 2 Aktion 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7996,45 +7996,45 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3685830</t>
+          <t>4886668</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
+          <t>Dar-Vida Cracker Nature</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1.42/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8054,46 +8054,46 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 20% ab 2 Aktion 1.85 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>3685830</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -8102,12 +8102,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>1.42/100g</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8127,56 +8127,60 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 20% ab 2 Aktion 1.85 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4886668</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8186,7 +8190,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8196,22 +8200,18 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8844,7 +8844,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11481,28 +11481,28 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157" t="n">
         <v>4.5</v>
@@ -11514,12 +11514,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11544,51 +11544,51 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11608,60 +11608,56 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11671,7 +11667,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11681,60 +11677,60 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11744,7 +11740,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11754,60 +11750,60 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E161" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11817,7 +11813,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11827,56 +11823,60 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>6117087</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11896,12 +11896,12 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11911,129 +11911,133 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6117087</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12043,17 +12047,13 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12812,31 +12812,31 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -12845,12 +12845,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12870,46 +12870,46 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -12918,12 +12918,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12943,22 +12943,22 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13173,45 +13173,45 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13231,56 +13231,56 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13300,18 +13300,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13662,45 +13662,45 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13720,56 +13720,60 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr"/>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13779,7 +13783,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13789,43 +13793,39 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -13837,12 +13837,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13862,18 +13862,18 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14368,43 +14368,45 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>4010866</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>29</v>
+      </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14414,7 +14416,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14424,18 +14426,18 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14508,45 +14510,43 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>4010866</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>29</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14556,7 +14556,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14566,18 +14566,18 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14723,45 +14723,45 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14786,55 +14786,55 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14859,17 +14859,17 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15080,45 +15080,45 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15138,60 +15138,56 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15201,7 +15197,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15211,18 +15207,22 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15567,7 +15567,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15636,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15920,45 +15920,45 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E220" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15978,60 +15978,56 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E221" t="n">
         <v>4.5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16041,7 +16037,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16051,56 +16047,60 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N221" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16120,46 +16120,50 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E223" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -16169,7 +16173,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16179,7 +16183,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16189,22 +16193,18 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16419,7 +16419,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16632,7 +16632,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16701,7 +16701,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16768,7 +16768,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17052,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17190,7 +17190,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17259,7 +17259,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17332,7 +17332,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17405,7 +17405,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17474,45 +17474,45 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E242" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17532,22 +17532,22 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17683,45 +17683,45 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17741,60 +17741,60 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E246" t="n">
         <v>4.5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17804,7 +17804,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17814,56 +17814,60 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N246" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17873,7 +17877,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17888,51 +17892,51 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E248" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -17942,7 +17946,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17952,22 +17956,18 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18454,7 +18454,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18596,7 +18596,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19160,7 +19160,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19227,7 +19227,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19367,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19436,7 +19436,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19578,7 +19578,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19647,7 +19647,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19716,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19858,7 +19858,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19925,7 +19925,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20063,7 +20063,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20339,7 +20339,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20477,7 +20477,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20546,7 +20546,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20686,45 +20686,43 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20734,7 +20732,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20744,35 +20742,35 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -20783,17 +20781,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20803,7 +20801,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20813,54 +20811,56 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20885,51 +20885,51 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E291" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20954,51 +20954,55 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21008,7 +21012,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21023,51 +21027,51 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E293" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21077,7 +21081,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21092,17 +21096,13 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21171,45 +21171,45 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D295" t="n">
         <v>3</v>
       </c>
       <c r="E295" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21229,60 +21229,60 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D296" t="n">
         <v>3</v>
       </c>
       <c r="E296" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21302,22 +21302,22 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21528,45 +21528,43 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21576,7 +21574,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21586,54 +21584,60 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr"/>
+          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>4</v>
+      </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21643,7 +21647,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21653,60 +21657,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21726,56 +21726,56 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21795,56 +21795,56 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E304" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21864,56 +21864,60 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E305" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21923,7 +21927,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21933,22 +21937,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22583,45 +22583,45 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6102496</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E315" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22641,56 +22641,56 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g 5.90 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22710,18 +22710,18 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22794,24 +22794,24 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -22822,17 +22822,17 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22852,56 +22852,56 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>5825322</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E319" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22911,7 +22911,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22921,18 +22921,18 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23068,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23350,31 +23350,31 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>5825322</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E326" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -23383,12 +23383,12 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23413,51 +23413,51 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g 3.10 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23477,56 +23477,56 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E328" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23546,56 +23546,60 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23605,7 +23609,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23615,60 +23619,54 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
-        </is>
-      </c>
-      <c r="D330" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23678,7 +23676,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23688,54 +23686,56 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>3</v>
+      </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23755,56 +23755,56 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6472919</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.76/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23824,91 +23824,22 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-06 12:58:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>6472919</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
-        </is>
-      </c>
-      <c r="D333" t="n">
-        <v>2</v>
-      </c>
-      <c r="E333" t="n">
-        <v>5</v>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Bischofberger</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2.76/100g</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>2023-02-06 12:58:27</t>
+          <t>2023-02-06 20:49:30</t>
         </is>
       </c>
     </row>
